--- a/KRSCRM/工作量评估.xlsx
+++ b/KRSCRM/工作量评估.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
